--- a/config/params.xlsx
+++ b/config/params.xlsx
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,7 +580,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PlanBld</t>
+          <t>NetIncRPo</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -590,7 +590,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ReversDemoBld</t>
+          <t>DemoBld</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -600,7 +600,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ReversCampact</t>
+          <t>Acc</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -610,7 +610,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Acc</t>
+          <t>PublicService</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -620,20 +620,10 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PublicServe</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>BI</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/config/params.xlsx
+++ b/config/params.xlsx
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
